--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3226"/>
+  <dimension ref="A1:D3241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45550,13 +45550,178 @@
       </c>
     </row>
     <row r="3226" spans="1:4">
-      <c r="B3226" t="s">
-        <v>4</v>
+      <c r="B3226" s="2">
+        <v>44961</v>
       </c>
       <c r="C3226">
         <v>0</v>
       </c>
-      <c r="D3226" t="s">
+      <c r="D3226">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:4">
+      <c r="B3227" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3227">
+        <v>0</v>
+      </c>
+      <c r="D3227">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:4">
+      <c r="B3228" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3228">
+        <v>0</v>
+      </c>
+      <c r="D3228">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:4">
+      <c r="B3229" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3229">
+        <v>0</v>
+      </c>
+      <c r="D3229">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:4">
+      <c r="B3230" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3230">
+        <v>0</v>
+      </c>
+      <c r="D3230">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:4">
+      <c r="B3231" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3231">
+        <v>0</v>
+      </c>
+      <c r="D3231">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:4">
+      <c r="B3232" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3232">
+        <v>0</v>
+      </c>
+      <c r="D3232">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3233" spans="2:4">
+      <c r="B3233" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3233">
+        <v>0</v>
+      </c>
+      <c r="D3233">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3234" spans="2:4">
+      <c r="B3234" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3234">
+        <v>0</v>
+      </c>
+      <c r="D3234">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3235" spans="2:4">
+      <c r="B3235" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3235">
+        <v>0</v>
+      </c>
+      <c r="D3235">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3236" spans="2:4">
+      <c r="B3236" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3236">
+        <v>0</v>
+      </c>
+      <c r="D3236">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3237" spans="2:4">
+      <c r="B3237" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3237">
+        <v>0</v>
+      </c>
+      <c r="D3237">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3238" spans="2:4">
+      <c r="B3238" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3238">
+        <v>0</v>
+      </c>
+      <c r="D3238">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3239" spans="2:4">
+      <c r="B3239" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3239">
+        <v>0</v>
+      </c>
+      <c r="D3239">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3240" spans="2:4">
+      <c r="B3240" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3240">
+        <v>0</v>
+      </c>
+      <c r="D3240">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3241" spans="2:4">
+      <c r="B3241" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3241">
+        <v>0</v>
+      </c>
+      <c r="D3241" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3241"/>
+  <dimension ref="A1:D3262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45715,13 +45715,244 @@
       </c>
     </row>
     <row r="3241" spans="2:4">
-      <c r="B3241" t="s">
-        <v>4</v>
+      <c r="B3241" s="2">
+        <v>44961</v>
       </c>
       <c r="C3241">
         <v>0</v>
       </c>
-      <c r="D3241" t="s">
+      <c r="D3241">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3242" spans="2:4">
+      <c r="B3242" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3242">
+        <v>0</v>
+      </c>
+      <c r="D3242">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3243" spans="2:4">
+      <c r="B3243" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3243">
+        <v>0</v>
+      </c>
+      <c r="D3243">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3244" spans="2:4">
+      <c r="B3244" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3244">
+        <v>0</v>
+      </c>
+      <c r="D3244">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3245" spans="2:4">
+      <c r="B3245" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3245">
+        <v>0</v>
+      </c>
+      <c r="D3245">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3246" spans="2:4">
+      <c r="B3246" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3246">
+        <v>0</v>
+      </c>
+      <c r="D3246">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3247" spans="2:4">
+      <c r="B3247" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3247">
+        <v>0</v>
+      </c>
+      <c r="D3247">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3248" spans="2:4">
+      <c r="B3248" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3248">
+        <v>0</v>
+      </c>
+      <c r="D3248">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3249" spans="2:4">
+      <c r="B3249" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3249">
+        <v>0</v>
+      </c>
+      <c r="D3249">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3250" spans="2:4">
+      <c r="B3250" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3250">
+        <v>0</v>
+      </c>
+      <c r="D3250">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3251" spans="2:4">
+      <c r="B3251" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3251">
+        <v>0</v>
+      </c>
+      <c r="D3251">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3252" spans="2:4">
+      <c r="B3252" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3252">
+        <v>0</v>
+      </c>
+      <c r="D3252">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3253" spans="2:4">
+      <c r="B3253" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3253">
+        <v>0</v>
+      </c>
+      <c r="D3253">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3254" spans="2:4">
+      <c r="B3254" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3254">
+        <v>0</v>
+      </c>
+      <c r="D3254">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3255" spans="2:4">
+      <c r="B3255" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3255">
+        <v>0</v>
+      </c>
+      <c r="D3255">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3256" spans="2:4">
+      <c r="B3256" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3256">
+        <v>0</v>
+      </c>
+      <c r="D3256">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3257" spans="2:4">
+      <c r="B3257" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3257">
+        <v>0</v>
+      </c>
+      <c r="D3257">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3258" spans="2:4">
+      <c r="B3258" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3258">
+        <v>0</v>
+      </c>
+      <c r="D3258">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3259" spans="2:4">
+      <c r="B3259" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3259">
+        <v>0</v>
+      </c>
+      <c r="D3259">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3260" spans="2:4">
+      <c r="B3260" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3260">
+        <v>0</v>
+      </c>
+      <c r="D3260">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3261" spans="2:4">
+      <c r="B3261" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3261">
+        <v>0</v>
+      </c>
+      <c r="D3261">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3262" spans="2:4">
+      <c r="B3262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3262">
+        <v>0</v>
+      </c>
+      <c r="D3262" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3262"/>
+  <dimension ref="A1:D3265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45946,13 +45946,46 @@
       </c>
     </row>
     <row r="3262" spans="2:4">
-      <c r="B3262" t="s">
-        <v>4</v>
+      <c r="B3262" s="2">
+        <v>44961</v>
       </c>
       <c r="C3262">
         <v>0</v>
       </c>
-      <c r="D3262" t="s">
+      <c r="D3262">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3263" spans="2:4">
+      <c r="B3263" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3263">
+        <v>0</v>
+      </c>
+      <c r="D3263">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3264" spans="2:4">
+      <c r="B3264" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3264">
+        <v>0</v>
+      </c>
+      <c r="D3264">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3265" spans="2:4">
+      <c r="B3265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3265">
+        <v>0</v>
+      </c>
+      <c r="D3265" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3265"/>
+  <dimension ref="A1:D3272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45979,13 +45979,90 @@
       </c>
     </row>
     <row r="3265" spans="2:4">
-      <c r="B3265" t="s">
-        <v>4</v>
+      <c r="B3265" s="2">
+        <v>44961</v>
       </c>
       <c r="C3265">
         <v>0</v>
       </c>
-      <c r="D3265" t="s">
+      <c r="D3265">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3266" spans="2:4">
+      <c r="B3266" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3266">
+        <v>0</v>
+      </c>
+      <c r="D3266">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3267" spans="2:4">
+      <c r="B3267" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3267">
+        <v>0</v>
+      </c>
+      <c r="D3267">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3268" spans="2:4">
+      <c r="B3268" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3268">
+        <v>0</v>
+      </c>
+      <c r="D3268">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3269" spans="2:4">
+      <c r="B3269" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3269">
+        <v>0</v>
+      </c>
+      <c r="D3269">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3270" spans="2:4">
+      <c r="B3270" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3270">
+        <v>0</v>
+      </c>
+      <c r="D3270">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3271" spans="2:4">
+      <c r="B3271" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3271">
+        <v>0</v>
+      </c>
+      <c r="D3271">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3272" spans="2:4">
+      <c r="B3272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3272">
+        <v>0</v>
+      </c>
+      <c r="D3272" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3272"/>
+  <dimension ref="A1:D3276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46056,13 +46056,57 @@
       </c>
     </row>
     <row r="3272" spans="2:4">
-      <c r="B3272" t="s">
-        <v>4</v>
+      <c r="B3272" s="2">
+        <v>44961</v>
       </c>
       <c r="C3272">
         <v>0</v>
       </c>
-      <c r="D3272" t="s">
+      <c r="D3272">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3273" spans="2:4">
+      <c r="B3273" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3273">
+        <v>0</v>
+      </c>
+      <c r="D3273">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3274" spans="2:4">
+      <c r="B3274" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3274">
+        <v>0</v>
+      </c>
+      <c r="D3274">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3275" spans="2:4">
+      <c r="B3275" s="2">
+        <v>44961</v>
+      </c>
+      <c r="C3275">
+        <v>0</v>
+      </c>
+      <c r="D3275">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3276" spans="2:4">
+      <c r="B3276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3276">
+        <v>0</v>
+      </c>
+      <c r="D3276" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -28,7 +28,7 @@
     <t>Venta</t>
   </si>
   <si>
-    <t>2023-02-04</t>
+    <t>2023-02-05</t>
   </si>
   <si>
     <t>379.0</t>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3276"/>
+  <dimension ref="A1:D3278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46100,13 +46100,35 @@
       </c>
     </row>
     <row r="3276" spans="2:4">
-      <c r="B3276" t="s">
-        <v>4</v>
+      <c r="B3276" s="2">
+        <v>44961</v>
       </c>
       <c r="C3276">
         <v>0</v>
       </c>
-      <c r="D3276" t="s">
+      <c r="D3276">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3277" spans="2:4">
+      <c r="B3277" s="2">
+        <v>44962</v>
+      </c>
+      <c r="C3277">
+        <v>0</v>
+      </c>
+      <c r="D3277">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3278" spans="2:4">
+      <c r="B3278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3278">
+        <v>0</v>
+      </c>
+      <c r="D3278" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/xlsx/PreciosBlue.xlsx
+++ b/data/xlsx/PreciosBlue.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3278"/>
+  <dimension ref="A1:D3279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46122,13 +46122,24 @@
       </c>
     </row>
     <row r="3278" spans="2:4">
-      <c r="B3278" t="s">
-        <v>4</v>
+      <c r="B3278" s="2">
+        <v>44962</v>
       </c>
       <c r="C3278">
         <v>0</v>
       </c>
-      <c r="D3278" t="s">
+      <c r="D3278">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3279" spans="2:4">
+      <c r="B3279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3279">
+        <v>0</v>
+      </c>
+      <c r="D3279" t="s">
         <v>5</v>
       </c>
     </row>
